--- a/biology/Botanique/Hakea_sericea/Hakea_sericea.xlsx
+++ b/biology/Botanique/Hakea_sericea/Hakea_sericea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hakéa soyeux
-Hakea sericea, l’Hakéa soyeux, est une espèce de larges arbustes de la famille des Proteaceae. Ces arbustes, buissonnants, ont une floraison majoritairement blanche du mois de juillet et pour plusieurs mois. Cette espèce est endémique de l'Est de l'Australie. Elle est devenue une plante exotique envahissante dans de nombreux pays et classée comme telle en 2022 par l'Union européenne[1]. Cela signifie qu'elle ne peut plus être importée, cultivée, commercialisée, plantée, ou libérée intentionnellement dans la nature, et ce nulle part dans l’Union européenne[2].
+Hakea sericea, l’Hakéa soyeux, est une espèce de larges arbustes de la famille des Proteaceae. Ces arbustes, buissonnants, ont une floraison majoritairement blanche du mois de juillet et pour plusieurs mois. Cette espèce est endémique de l'Est de l'Australie. Elle est devenue une plante exotique envahissante dans de nombreux pays et classée comme telle en 2022 par l'Union européenne. Cela signifie qu'elle ne peut plus être importée, cultivée, commercialisée, plantée, ou libérée intentionnellement dans la nature, et ce nulle part dans l’Union européenne.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le hakea soyeux se trouve depuis la côte jusqu'aux chaînes de montagnes adjacentes du Sud-Est du Queensland jusqu'au Sud-Est de la Nouvelle-Galles du Sud.
 C'est une espèce tolérante au gel, qui pousse dans un sol bien drainé et en plein soleil. Elle est également naturalisée dans d'autres régions d'Australie.
-Elle est considérée comme une espèce exotique envahissante dans certaines régions du monde, hors Australie, comme en Afrique du Sud, en Nouvelle-Zélande, au Portugal et en France[3].
+Elle est considérée comme une espèce exotique envahissante dans certaines régions du monde, hors Australie, comme en Afrique du Sud, en Nouvelle-Zélande, au Portugal et en France.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Hakea sericea est un grand arbuste buissonnant et étalé qui peut atteindre 4 m et ne forme pas de lignotuber. Les ramifications sont densément couvertes de poils courts, doux et laineux, de couleur gris-blanc. Les inflorescences se présentent sous forme d'ombelles de une à six fleurs à l'aisselle des feuilles, rosées en bouton et devenant blanches. Le rachis de l'inflorescence est long de 0,5-2,5 mm et est recouvert de poils laineux, courts, blancs et emmêlés vers l'extrémité et de couleur rouille à la base. Les pédicelles mesurent 2-4 mm de long et sont légèrement à densément recouverts de longs poils blancs. Le périanthe lisse mesure 2,5-4,7 mm de long et le pistil 4-7,5 mm de long. Les feuilles en forme d'aiguille sont rainurées sur la face inférieure et mesurent jusqu'à 7 cm de long et 0,7-1,3 mm de large. Elles se terminent par une pointe acérée de 1-2 mm de long. Les feuilles sont modérément couvertes de poils soyeux aplatis, devenant rapidement lisses. Les fruits sont rugueux et grossièrement ridés avec un réseau de veines sur la surface, 2,5-3 cm de long et 2 cm de large se terminant par un bec court et large de 3 mm de long.
 </t>
@@ -576,9 +592,11 @@
           <t>Taxonomie et dénomination</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Hakea sericea a été décrite officiellement par Heinrich Adolph Schrader et Johann Christoph Wendland en 1796 dans Sertum Hannoveranum[4]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Hakea sericea a été décrite officiellement par Heinrich Adolph Schrader et Johann Christoph Wendland en 1796 dans Sertum Hannoveranum. 
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom générique, Hakea, a été donné en l'honneur du baron Christian Ludwig von Hake (de) (1745-1818), mécène de divers projets botaniques au 18e siècle.
 Son épithète spécifique, sericea, signifie soyeux, et fait référence aux petits poils des jeunes pousses.
